--- a/class_schedules_fall_2018/ITALIAN (ITAL).xlsx
+++ b/class_schedules_fall_2018/ITALIAN (ITAL).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>101</t>
   </si>
@@ -31,9 +31,15 @@
     <t>01</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>1403</t>
   </si>
   <si>
+    <t>1404</t>
+  </si>
+  <si>
     <t>8983</t>
   </si>
   <si>
@@ -52,16 +58,37 @@
     <t>F</t>
   </si>
   <si>
-    <t>Beginning Italian I MTWRF 1000-1050am</t>
-  </si>
-  <si>
-    <t>Italiano intermedio accellerat MWF 0130-0220pm</t>
-  </si>
-  <si>
-    <t>Private Reading - Full</t>
-  </si>
-  <si>
-    <t>Private Reading - Half</t>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>Beginning Italian I MTWRF</t>
+  </si>
+  <si>
+    <t>Italiano intermedio accellerat MWF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Reading </t>
+  </si>
+  <si>
+    <t>1050am</t>
+  </si>
+  <si>
+    <t>1150am</t>
+  </si>
+  <si>
+    <t>0220pm</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Half</t>
   </si>
   <si>
     <t>PETE</t>
@@ -434,13 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -471,8 +498,14 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -483,133 +516,192 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
-        <v>20</v>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
